--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game130\Desktop\つっぱり大相撲\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game130\Documents\GitHub\TEAM_E_Ver.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -231,22 +231,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>低ポリ 頭 胴 腕 3パーツぐらい</t>
-    <rPh sb="0" eb="1">
-      <t>テイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アタマ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ウデ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>土俵</t>
     <rPh sb="0" eb="2">
       <t>ドヒョウ</t>
@@ -859,6 +843,25 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低ポリ (頭 胴体 足) + 腕(2*2)パーツ</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウデ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3967,7 +3970,7 @@
   <autoFilter ref="A3:F73">
     <filterColumn colId="2">
       <filters>
-        <filter val="モーション"/>
+        <filter val="3D"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4252,7 +4255,7 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4311,7 +4314,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -4373,7 +4376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4407,10 +4410,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s">
         <v>11</v>
@@ -4434,7 +4437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -4449,10 +4452,10 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
@@ -4499,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
@@ -4516,10 +4519,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -4534,10 +4537,10 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -4552,10 +4555,10 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -4570,10 +4573,10 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -4587,18 +4590,18 @@
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -4608,15 +4611,15 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>4</v>
@@ -4626,7 +4629,7 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
@@ -4634,7 +4637,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -4643,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
@@ -4651,7 +4654,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -4660,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
@@ -4668,7 +4671,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
@@ -4683,7 +4686,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -4692,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
@@ -4700,7 +4703,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
@@ -4709,155 +4712,155 @@
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="5"/>
     </row>
@@ -4866,7 +4869,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>8</v>
@@ -4881,7 +4884,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>8</v>
@@ -4896,7 +4899,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>8</v>
@@ -4911,7 +4914,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>8</v>
@@ -4926,7 +4929,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>8</v>
@@ -4941,7 +4944,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>8</v>
@@ -4956,7 +4959,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>8</v>
@@ -4971,7 +4974,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>8</v>
@@ -4986,7 +4989,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>8</v>
@@ -5001,7 +5004,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>8</v>
@@ -5031,7 +5034,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>8</v>
@@ -5046,7 +5049,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>8</v>
@@ -5061,7 +5064,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>8</v>
@@ -5091,16 +5094,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5108,10 +5111,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -5123,10 +5126,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -5138,16 +5141,16 @@
         <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5155,10 +5158,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -5170,10 +5173,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -5185,10 +5188,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -5200,10 +5203,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -5215,10 +5218,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -5230,10 +5233,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -5245,16 +5248,16 @@
         <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5262,16 +5265,16 @@
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5279,16 +5282,16 @@
         <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5296,16 +5299,16 @@
         <v>60</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5313,10 +5316,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -5328,10 +5331,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -5343,10 +5346,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -5358,10 +5361,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -5373,24 +5376,24 @@
         <v>65</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="4">
         <v>2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>4</v>
@@ -5399,18 +5402,18 @@
         <v>1</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>67</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>4</v>
@@ -5420,7 +5423,7 @@
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.45">

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="122">
   <si>
     <t>仕 様 書</t>
     <rPh sb="0" eb="1">
@@ -180,13 +180,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>置いておくよう</t>
-    <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>UI 体力ゲージ</t>
     <rPh sb="3" eb="5">
       <t>タイリョク</t>
@@ -303,16 +296,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>勝ち負け</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>モーション</t>
   </si>
   <si>
@@ -333,16 +316,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>もう一度　キャラ選択　タイトルへ</t>
-    <rPh sb="2" eb="4">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>つっぱり</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -862,6 +835,141 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>ウデ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成度</t>
+    <rPh sb="0" eb="3">
+      <t>カンセイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラ選択のUI</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラの名前</t>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ボタンを押す」と「Aボタンを押す」と「Bボタンを押す」</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレスボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「もう一度」「キャラ選択」「タイトルへ」</t>
+    <rPh sb="3" eb="5">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「十字キーの左右ボタン」 横に選択</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はっけよいのこった</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「はっけよい」「のこった」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勝ちと負け</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒い空のゲージ</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>置いておく用</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何ラウンドかのUI</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「一場所目」「二場所目」「三場所目」</t>
+    <rPh sb="1" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1084,99 +1192,6 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1276,6 +1291,99 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3966,24 +4074,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A3:F73" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:F73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A3:G79" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A3:G79">
     <filterColumn colId="2">
       <filters>
-        <filter val="3D"/>
+        <filter val="2D"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A4:F73">
     <sortCondition ref="A3:A73"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="番号" dataDxfId="4"/>
-    <tableColumn id="2" name="項目名" dataDxfId="3"/>
-    <tableColumn id="3" name="種類" dataDxfId="2" dataCellStyle="60% - アクセント 1"/>
-    <tableColumn id="4" name="必要数" dataDxfId="1"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="番号" dataDxfId="14"/>
+    <tableColumn id="2" name="項目名" dataDxfId="13"/>
+    <tableColumn id="3" name="種類" dataDxfId="12" dataCellStyle="60% - アクセント 1"/>
+    <tableColumn id="4" name="必要数" dataDxfId="11"/>
     <tableColumn id="5" name="説明"/>
-    <tableColumn id="6" name="優先度" dataDxfId="0"/>
+    <tableColumn id="6" name="優先度" dataDxfId="10"/>
+    <tableColumn id="7" name="完成度"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4252,10 +4361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4265,6 +4374,7 @@
     <col min="4" max="4" width="12.796875" customWidth="1"/>
     <col min="5" max="5" width="57.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" customWidth="1"/>
     <col min="15" max="15" width="10.19921875" customWidth="1"/>
     <col min="16" max="16" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4314,12 +4424,14 @@
         <v>17</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4335,8 +4447,11 @@
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G4" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4352,11 +4467,14 @@
       <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="G5" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="P5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4370,13 +4488,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G6" s="14"/>
       <c r="P6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4396,7 +4515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4410,10 +4529,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s">
         <v>11</v>
@@ -4437,7 +4556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -4452,10 +4571,10 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
@@ -4473,12 +4592,12 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -4486,14 +4605,16 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="E12" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -4502,15 +4623,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -4519,15 +4640,18 @@
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -4537,15 +4661,15 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>4</v>
@@ -4555,15 +4679,15 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -4573,15 +4697,15 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
@@ -4590,18 +4714,18 @@
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -4611,15 +4735,15 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>4</v>
@@ -4629,15 +4753,15 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -4646,15 +4770,15 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -4663,15 +4787,15 @@
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
@@ -4681,12 +4805,12 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -4695,15 +4819,15 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
@@ -4712,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
@@ -4720,16 +4844,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
@@ -4737,16 +4861,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
@@ -4754,16 +4878,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
@@ -4771,16 +4895,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
@@ -4788,16 +4912,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
@@ -4805,16 +4929,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
@@ -4822,16 +4946,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -4839,10 +4963,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
@@ -4854,13 +4978,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E34" s="5"/>
     </row>
@@ -4869,7 +4993,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>8</v>
@@ -4884,7 +5008,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>8</v>
@@ -4899,7 +5023,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>8</v>
@@ -4914,7 +5038,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>8</v>
@@ -4929,7 +5053,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>8</v>
@@ -4944,7 +5068,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>8</v>
@@ -4959,7 +5083,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>8</v>
@@ -4974,7 +5098,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>8</v>
@@ -4989,7 +5113,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>8</v>
@@ -5004,7 +5128,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>8</v>
@@ -5019,7 +5143,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>8</v>
@@ -5034,7 +5158,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>8</v>
@@ -5049,7 +5173,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>8</v>
@@ -5064,7 +5188,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>8</v>
@@ -5094,16 +5218,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5111,10 +5235,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -5126,10 +5250,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -5141,16 +5265,16 @@
         <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5158,10 +5282,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -5173,10 +5297,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -5188,10 +5312,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -5203,10 +5327,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -5218,10 +5342,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -5233,10 +5357,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -5248,16 +5372,16 @@
         <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5265,16 +5389,16 @@
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5282,16 +5406,16 @@
         <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5299,16 +5423,16 @@
         <v>60</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
@@ -5316,10 +5440,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -5331,10 +5455,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -5346,10 +5470,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -5361,10 +5485,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -5376,24 +5500,24 @@
         <v>65</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D68" s="4">
         <v>2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>4</v>
@@ -5402,18 +5526,18 @@
         <v>1</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>67</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>4</v>
@@ -5423,72 +5547,172 @@
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="4"/>
+      <c r="B72" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="4">
+        <v>3</v>
+      </c>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>70</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="5"/>
+      <c r="B73" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4">
+        <v>3</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="4">
+        <v>3</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C4:C13 C16:C73">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="BGM">
+  <conditionalFormatting sqref="C4:C13 C16:C79">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="BGM">
       <formula>NOT(ISERROR(SEARCH("BGM",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="SE">
+    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="SE">
       <formula>NOT(ISERROR(SEARCH("SE",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="プログラム">
+    <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="プログラム">
       <formula>NOT(ISERROR(SEARCH("プログラム",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="2D">
+    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="2D">
       <formula>NOT(ISERROR(SEARCH("2D",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="3D">
+    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="3D">
       <formula>NOT(ISERROR(SEARCH("3D",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C15">
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="BGM">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="BGM">
       <formula>NOT(ISERROR(SEARCH("BGM",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="SE">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="SE">
       <formula>NOT(ISERROR(SEARCH("SE",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="プログラム">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="プログラム">
       <formula>NOT(ISERROR(SEARCH("プログラム",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="2D">
+    <cfRule type="containsText" dxfId="1" priority="14" operator="containsText" text="2D">
       <formula>NOT(ISERROR(SEARCH("2D",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="3D">
+    <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="3D">
       <formula>NOT(ISERROR(SEARCH("3D",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5496,7 +5720,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25">
       <formula1>$P$5:$P$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C79">
       <formula1>$P$5:$P$10</formula1>
     </dataValidation>
   </dataValidations>
